--- a/data/trans_dic/P45C_R1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,37</t>
+          <t>1,59; 6,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,14</t>
+          <t>1,1; 4,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,73</t>
+          <t>1,59; 4,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,03</t>
+          <t>1,81; 4,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,3</t>
+          <t>0,56; 2,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,57</t>
+          <t>0,0; 1,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,56</t>
+          <t>1,61; 4,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0,0; 1,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,47</t>
+          <t>0,53; 2,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,17</t>
+          <t>1,94; 4,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,36</t>
+          <t>0,29; 1,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,64</t>
+          <t>0,46; 1,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,81</t>
+          <t>0,0; 1,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,86</t>
+          <t>1,71; 5,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,94</t>
+          <t>0,0; 0,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,15</t>
+          <t>0,9; 3,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,63</t>
+          <t>0,0; 0,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,4</t>
+          <t>1,3; 5,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,48</t>
+          <t>2,44; 5,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,6</t>
+          <t>0,26; 2,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>0,0; 1,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,64</t>
+          <t>1,88; 4,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,75</t>
+          <t>1,3; 4,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,09</t>
+          <t>0,88; 3,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,54</t>
+          <t>2,51; 4,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,02</t>
+          <t>1,06; 2,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,2</t>
+          <t>0,0; 3,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,17</t>
+          <t>0,0; 1,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>0,0; 1,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,0; 2,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,57</t>
+          <t>0,36; 3,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,71</t>
+          <t>0,0; 2,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,29</t>
+          <t>0,38; 4,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,69; 4,36</t>
+          <t>0,68; 3,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,82</t>
+          <t>0,18; 1,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,13</t>
+          <t>0,68; 2,96</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,43</t>
+          <t>0,56; 2,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,08</t>
+          <t>1,41; 4,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,99</t>
+          <t>0,43; 1,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,54</t>
+          <t>0,47; 2,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,25</t>
+          <t>1,74; 4,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,8</t>
+          <t>0,91; 2,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,8</t>
+          <t>0,17; 1,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,75</t>
+          <t>1,82; 3,74</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,06</t>
+          <t>0,8; 2,09</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,81</t>
+          <t>0,45; 1,75</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,12</t>
+          <t>0,99; 2,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,8</t>
+          <t>0,0; 0,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,24</t>
+          <t>0,12; 1,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,13</t>
+          <t>1,46; 3,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,64</t>
+          <t>0,26; 1,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,62</t>
+          <t>0,28; 1,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,95</t>
+          <t>1,43; 2,97</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,98</t>
+          <t>0,24; 0,98</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,13</t>
+          <t>0,33; 1,16</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,21</t>
+          <t>1,27; 2,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,76</t>
+          <t>0,93; 1,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,3</t>
+          <t>0,65; 1,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,17</t>
+          <t>1,26; 2,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,08</t>
+          <t>1,19; 2,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,53</t>
+          <t>0,79; 1,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,07</t>
+          <t>1,38; 2,04</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,78</t>
+          <t>1,18; 1,78</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,34</t>
+          <t>0,78; 1,29</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P45C_R1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 6,7</t>
+          <t>1,63; 6,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,79</t>
+          <t>1,04; 4,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,61</t>
+          <t>1,65; 4,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,95</t>
+          <t>1,61; 4,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,55</t>
+          <t>0,4; 2,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,55</t>
+          <t>0,17; 1,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,87</t>
+          <t>2,39; 6,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,8</t>
+          <t>1,58; 4,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 1,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,55</t>
+          <t>0,41; 2,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,88</t>
+          <t>3,38; 6,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,03</t>
+          <t>1,93; 4,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,37</t>
+          <t>0,3; 1,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 1,61</t>
+          <t>0,44; 1,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,15</t>
+          <t>3,3; 6,03</t>
         </is>
       </c>
     </row>
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,6</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,4</t>
+          <t>0,0; 1,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,76</t>
+          <t>1,63; 5,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1039,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,7</t>
+          <t>0,04; 1,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,77</t>
+          <t>0,0; 0,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,1</t>
+          <t>0,92; 3,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,54</t>
+          <t>0,0; 0,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,94</t>
+          <t>0,02; 0,92</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,48</t>
+          <t>1,5; 5,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,66</t>
+          <t>2,43; 5,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,35</t>
+          <t>0,26; 2,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,94</t>
+          <t>0,4; 3,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,5</t>
+          <t>0,0; 1,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,65</t>
+          <t>1,83; 4,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,72</t>
+          <t>1,28; 4,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,05</t>
+          <t>0,04; 1,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,07</t>
+          <t>0,88; 3,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,61</t>
+          <t>2,55; 4,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,94</t>
+          <t>1,04; 2,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,44</t>
+          <t>0,26; 1,4</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,35</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,06</t>
+          <t>0,0; 1,04</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,72</t>
+          <t>0,0; 1,4</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,23</t>
+          <t>0,0; 2,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,47</t>
+          <t>0,36; 3,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,38</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,71</t>
+          <t>1,0; 4,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,0; 2,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,23</t>
+          <t>0,61; 4,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,94</t>
+          <t>0,7; 4,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,83</t>
+          <t>1,28; 4,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,73</t>
+          <t>0,17; 1,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,96</t>
+          <t>0,73; 3,06</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,67</t>
+          <t>0,55; 2,61</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,8</t>
+          <t>1,47; 3,79</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,41; 4,23</t>
+          <t>1,37; 4,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,89</t>
+          <t>0,31; 1,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,49</t>
+          <t>0,47; 2,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,41</t>
+          <t>1,18; 4,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,36</t>
+          <t>1,58; 4,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,97</t>
+          <t>0,76; 2,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,88</t>
+          <t>0,17; 1,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,26</t>
+          <t>0,93; 3,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,74</t>
+          <t>1,82; 3,72</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,09</t>
+          <t>0,82; 2,1</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,75</t>
+          <t>0,5; 1,67</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,1</t>
+          <t>1,16; 3,09</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,93</t>
+          <t>0,93; 2,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1714,52 +1714,52 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,28</t>
+          <t>0,12; 1,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,48</t>
+          <t>0,7; 2,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,83</t>
+          <t>1,45; 3,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,66</t>
+          <t>0,26; 1,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,59</t>
+          <t>0,26; 1,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,34</t>
+          <t>0,13; 1,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,97</t>
+          <t>1,48; 2,95</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,98</t>
+          <t>0,25; 0,99</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,16</t>
+          <t>0,33; 1,14</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,62</t>
+          <t>0,51; 1,55</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,24</t>
+          <t>1,27; 2,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,74</t>
+          <t>0,94; 1,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,31</t>
+          <t>0,59; 1,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,33</t>
+          <t>1,24; 2,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,19</t>
+          <t>1,26; 2,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,09</t>
+          <t>1,18; 2,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,54</t>
+          <t>0,79; 1,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,89</t>
+          <t>1,12; 1,98</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,04</t>
+          <t>1,39; 2,05</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,78</t>
+          <t>1,14; 1,75</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,29</t>
+          <t>0,77; 1,29</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,97</t>
+          <t>1,29; 1,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P45C_R1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,7; 5,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 4,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,29; 4,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,56%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,58</t>
+          <t>2,33; 6,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,77</t>
+          <t>3,4; 6,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,03</t>
+          <t>3,33; 6,11</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,63</t>
+          <t>0,05; 1,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,92</t>
+          <t>0,02; 0,93</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,62%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,84</t>
+          <t>2,36; 7,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,03</t>
+          <t>0,41; 3,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,49</t>
+          <t>2,4; 6,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,14</t>
+          <t>0,03; 1,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,59</t>
+          <t>2,85; 5,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,4</t>
+          <t>0,23; 1,29</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,42%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,37</t>
+          <t>1,03; 4,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,8</t>
+          <t>1,25; 4,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,79</t>
+          <t>1,46; 3,85</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,83%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,29</t>
+          <t>1,15; 4,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,29</t>
+          <t>0,59; 2,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,09</t>
+          <t>0,98; 2,91</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,83%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,66</t>
+          <t>0,35; 2,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,21</t>
+          <t>0,12; 1,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,55</t>
+          <t>0,41; 1,41</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,5%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,26</t>
+          <t>1,08; 2,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,98</t>
+          <t>1,08; 1,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,92</t>
+          <t>1,2; 1,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P45C_R1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,12 +730,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,94</t>
+          <t>1,46; 5,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 6,77</t>
+          <t>1,48; 6,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +750,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 4,29</t>
+          <t>0,34; 4,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,84</t>
+          <t>1,03; 5,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -769,12 +770,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,04</t>
+          <t>1,28; 3,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,8</t>
+          <t>1,7; 4,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,69</t>
+          <t>1,76; 5,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,51</t>
+          <t>0,4; 2,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,83</t>
+          <t>0,17; 1,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,6</t>
+          <t>2,12; 6,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,5</t>
+          <t>1,58; 4,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,08</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,49</t>
+          <t>0,4; 2,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,84</t>
+          <t>3,37; 6,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,18</t>
+          <t>1,88; 4,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,4</t>
+          <t>0,29; 1,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,63</t>
+          <t>0,39; 1,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,11</t>
+          <t>3,34; 6,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1009,12 +1010,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,41</t>
+          <t>0,0; 1,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,38</t>
+          <t>0,0; 1,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,12 +1025,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>0,0; 1,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,91</t>
+          <t>1,48; 5,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1040,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,7</t>
+          <t>0,09; 1,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,84</t>
+          <t>0,0; 0,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,21</t>
+          <t>0,91; 3,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,72</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,93</t>
+          <t>0,02; 0,88</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,35</t>
+          <t>1,33; 5,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 7,04</t>
+          <t>2,12; 6,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,56</t>
+          <t>0,26; 2,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,12</t>
+          <t>0,34; 2,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,73</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 6,68</t>
+          <t>2,59; 6,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,71</t>
+          <t>1,34; 5,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,03; 1,01</t>
+          <t>0,03; 0,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,27</t>
+          <t>0,89; 2,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,95</t>
+          <t>2,87; 5,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,95</t>
+          <t>1,07; 3,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,29</t>
+          <t>0,25; 1,37</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1285,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,94</t>
+          <t>0,0; 2,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1309,7 +1310,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,76</t>
+          <t>0,0; 2,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1324,12 +1325,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,04</t>
+          <t>0,0; 1,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,4</t>
+          <t>0,0; 1,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1346,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,22</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,58</t>
+          <t>0,36; 3,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,5</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,51</t>
+          <t>1,01; 4,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,4</t>
+          <t>0,0; 2,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,61; 4,58</t>
+          <t>0,61; 4,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,05</t>
+          <t>0,73; 4,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,74</t>
+          <t>1,28; 4,91</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,69</t>
+          <t>0,17; 1,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,06</t>
+          <t>0,68; 2,97</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,61</t>
+          <t>0,57; 2,6</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,85</t>
+          <t>1,5; 3,97</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,18</t>
+          <t>1,41; 4,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,86</t>
+          <t>0,39; 1,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,55</t>
+          <t>0,46; 2,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,21</t>
+          <t>1,1; 4,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,31</t>
+          <t>1,66; 4,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,63</t>
+          <t>0,86; 2,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,64</t>
+          <t>0,25; 1,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,99</t>
+          <t>0,6; 2,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,72</t>
+          <t>1,76; 3,63</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,1</t>
+          <t>0,78; 1,96</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,67</t>
+          <t>0,49; 1,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,91</t>
+          <t>1,04; 2,89</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,92</t>
+          <t>0,88; 2,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,92</t>
+          <t>0,0; 0,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,21</t>
+          <t>0,12; 1,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,13</t>
+          <t>0,36; 2,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,75</t>
+          <t>1,52; 3,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,62</t>
+          <t>0,25; 1,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,61</t>
+          <t>0,28; 1,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,14</t>
+          <t>0,12; 1,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,48; 2,95</t>
+          <t>1,45; 2,99</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,25; 0,99</t>
+          <t>0,25; 0,94</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,14</t>
+          <t>0,31; 1,18</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,41</t>
+          <t>0,41; 1,5</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,22</t>
+          <t>1,26; 2,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,76</t>
+          <t>0,96; 1,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,29</t>
+          <t>0,61; 1,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,18</t>
+          <t>1,12; 2,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,14</t>
+          <t>1,25; 2,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,06</t>
+          <t>1,21; 2,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,49</t>
+          <t>0,81; 1,55</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,93</t>
+          <t>1,08; 1,84</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,05</t>
+          <t>1,4; 2,05</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,75</t>
+          <t>1,19; 1,76</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,29</t>
+          <t>0,79; 1,31</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,87</t>
+          <t>1,2; 1,89</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que han sufrido a lo largo de este ultimo año alguna quemadura solar con ampollas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9305</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9723</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4017</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7149</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>13322</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16872</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4317; 16161</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4350; 18449</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1801</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2035</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>977; 11894</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2976; 14438</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1032</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1983</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7403; 22336</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9865; 27462</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1327</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>14835</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5809</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2858</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>21412</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14286</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5923</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>25591</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>29121</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6918</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8781</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>47003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8659; 24963</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1975; 12033</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>872; 7842</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10966; 35280</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7980; 23286</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5583</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2079; 11989</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17325; 35166</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>18724; 40591</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2905; 12964</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3987; 15939</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>34423; 63999</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10903</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1857</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11925</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1857</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4138</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4927</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1682</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5031</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5025; 18128</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1937</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>315; 5737</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5019</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5993; 20612</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4028</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>162; 5817</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10024</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>15782</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3823</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3566</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1840</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16037</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10182</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1271</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>11864</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>31819</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>14005</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4837</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>4754; 18706</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7827; 24921</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>966; 9681</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1058; 9190</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6458</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9933; 24869</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5183; 20030</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>147; 4549</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6491; 21027</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>21565; 43627</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8088; 23537</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1989; 10732</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>854</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4232</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2071</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1903</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1225</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2002</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6020</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1873</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 813</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4313</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7082</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1893</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 964</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1912</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3939</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6074</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4723</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4976</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6643</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3860</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>8662</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6984</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>12717</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6096</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>990; 9702</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6114</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2703; 11784</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5901</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1713; 12277</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1984; 11068</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3293; 12611</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>955; 9569</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>3766; 16425</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>3022; 13901</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>7872; 20877</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>14914</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>6125</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>7705</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>14066</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>18012</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>11326</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>4911</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>12891</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>32926</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>17451</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>12616</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>26957</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>8668; 26090</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2565; 12494</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2995; 16552</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>6874; 26951</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>10602; 28503</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>5921; 19808</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1686; 13155</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5130; 23937</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>22075; 45431</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>10467; 26508</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>6501; 23007</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>15240; 42518</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>12602</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2029</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>3821</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>10170</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>19264</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>6183</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>6382</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>3443</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>31867</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>8213</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>10203</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>13614</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>6503; 21951</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 7435</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>957; 9863</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3371; 19168</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>11836; 28638</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2034; 13348</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2290; 13107</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>867; 9243</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>21903; 45147</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>3969; 14949</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>4896; 18734</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>6799; 24692</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>55141</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>44012</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>30803</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>55289</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>56351</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>56260</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>39523</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>51696</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>111492</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>100272</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>70326</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>106985</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>41158; 71594</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>32497; 59551</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>20462; 44332</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>38688; 74710</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>42023; 71951</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>42517; 72634</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>28480; 54585</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>39338; 67432</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>92764; 135990</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>82646; 121592</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>54591; 89984</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>85001; 134634</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>